--- a/data/trans_dic/P32C-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P32C-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P32C-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P32C-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>1,32%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>5,97%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1,09%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1,57%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>3,66%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,27%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,99%</t>
         </is>
       </c>
     </row>
@@ -724,22 +724,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,86</t>
+          <t>0,0; 6,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,7</t>
+          <t>2,25; 12,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,31</t>
+          <t>0,0; 5,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,42</t>
+          <t>0,0; 8,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 7,61</t>
+          <t>0,0; 18,65</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -764,22 +764,22 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,94</t>
+          <t>0,0; 4,77</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,02</t>
+          <t>1,96; 10,62</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,58</t>
+          <t>0,0; 4,36</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,94</t>
+          <t>0,0; 4,21</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>0,49%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0,57%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2,08%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0,63%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,75%</t>
         </is>
       </c>
     </row>
@@ -864,22 +864,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>0,0; 1,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>0,0; 1,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,59</t>
+          <t>0,93; 4,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>0,2; 1,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,27 +899,27 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>0,0; 4,12</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>0,0; 1,07</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>0,0; 1,37</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>0,47; 3,09</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>0,25; 1,59</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>1,51%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1,39%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1,55%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1,6%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,62%</t>
         </is>
       </c>
     </row>
@@ -1004,22 +1004,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>0,7; 3,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>0,68; 2,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>0,57; 2,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>0,66; 2,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1034,32 +1034,32 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,64</t>
+          <t>0,0; 1,42</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>0,49; 4,52</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>0,43; 2,04</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>0,45; 1,81</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>0,53; 1,95</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>0,93; 2,83</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>3,38%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2,25%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1,94%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0,69%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,79%</t>
         </is>
       </c>
     </row>
@@ -1144,22 +1144,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>1,82; 6,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>1,11; 3,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>0,91; 3,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>0,0; 2,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,27 +1179,27 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,77</t>
+          <t>0,0; 4,91</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>1,25; 4,2</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>0,8; 2,87</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>0,6; 2,32</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>0,18; 2,94</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,37%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,96%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,27%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>1,3; 4,04</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>1,75; 4,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>0,53; 2,49</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>0,71; 2,94</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,65</t>
+          <t>1,01; 5,49</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,55</t>
+          <t>0,0; 1,71</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>0,49; 2,84</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>0,22; 1,89</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>1,54; 3,93</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>1,18; 3,23</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>0,63; 2,1</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>0,7; 2,26</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,29%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,16%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>1,3; 2,59</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>1,5; 2,77</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>1,12; 2,24</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>0,82; 1,82</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>0,41; 1,81</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0,1; 0,78</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>0,19; 1,09</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>0,48; 2,22</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>1,13; 2,09</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>1,04; 1,91</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>0,86; 1,67</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>0,8; 1,65</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P32C-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P32C-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,22 +656,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,09%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,27 +691,27 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>5,27%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>0,75%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,64</t>
+          <t>0,21; 1,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,25; 12,23</t>
+          <t>0,56; 2,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,61</t>
+          <t>0,79; 3,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,02</t>
+          <t>0,17; 1,73</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 5,78</t>
+          <t>0; 1,04</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,65</t>
+          <t>0,0; 3,23</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 4,9</t>
+          <t>0; 1,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 4,34</t>
+          <t>0,0; 2,93</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,77</t>
+          <t>0,15; 1,34</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,96; 10,62</t>
+          <t>0,54; 2,2</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,36</t>
+          <t>0,52; 2,78</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,21</t>
+          <t>0,29; 1,63</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,22 +796,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -826,32 +826,32 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>1,58%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,73</t>
+          <t>0,7; 3,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,98</t>
+          <t>0,68; 2,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,93; 4,42</t>
+          <t>0,57; 2,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,2; 1,74</t>
+          <t>0,63; 2,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,26</t>
+          <t>0; 0,73</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,4</t>
+          <t>0; 0,71</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,25</t>
+          <t>0,0; 1,42</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,12</t>
+          <t>0,48; 4,63</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,07</t>
+          <t>0,43; 2,04</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,37</t>
+          <t>0,45; 1,81</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,47; 3,09</t>
+          <t>0,53; 1,95</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,25; 1,59</t>
+          <t>0,9; 2,79</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,22 +936,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,55%</t>
+          <t>1,94%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -966,32 +966,32 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,02%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1,12%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>0,64%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,7; 3,15</t>
+          <t>1,82; 6,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,68; 2,7</t>
+          <t>1,11; 3,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,57; 2,79</t>
+          <t>0,91; 3,82</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,66; 2,84</t>
+          <t>0,0; 2,36</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>0; 1,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>0; 1,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,42</t>
+          <t>0; 0,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,49; 4,52</t>
+          <t>0,0; 3,8</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,43; 2,04</t>
+          <t>1,25; 4,2</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,45; 1,81</t>
+          <t>0,8; 2,87</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,53; 1,95</t>
+          <t>0,6; 2,32</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,93; 2,83</t>
+          <t>0,0; 2,03</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>2,37%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>2,96%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,94%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1,56%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
+          <t>1,24%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
           <t>1,26%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>0,79%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,82; 6,36</t>
+          <t>1,3; 4,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,11; 3,89</t>
+          <t>1,75; 4,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,91; 3,82</t>
+          <t>0,53; 2,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,37</t>
+          <t>0,69; 2,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,42</t>
+          <t>1,01; 5,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,06</t>
+          <t>0,0; 1,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,88</t>
+          <t>0,49; 2,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,91</t>
+          <t>0,23; 1,9</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,25; 4,2</t>
+          <t>1,54; 3,93</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,8; 2,87</t>
+          <t>1,18; 3,23</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,6; 2,32</t>
+          <t>0,63; 2,1</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,18; 2,94</t>
+          <t>0,69; 2,18</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,37%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,96%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>1,61%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1,19%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0,91%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0,29%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,55%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,9%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1,57%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>1,43%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>1,23%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>1,59%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>2,68%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>0,55%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>1,27%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>0,79%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>2,49%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>2,0%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>1,24%</t>
-        </is>
-      </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>1,08%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,3; 4,04</t>
+          <t>1,3; 2,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,75; 4,7</t>
+          <t>1,5; 2,77</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,53; 2,49</t>
+          <t>1,12; 2,24</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,71; 2,94</t>
+          <t>0,79; 1,78</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,01; 5,49</t>
+          <t>0,41; 1,81</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,71</t>
+          <t>0,1; 0,78</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,49; 2,84</t>
+          <t>0,19; 1,09</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,22; 1,89</t>
+          <t>0,36; 1,96</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,54; 3,93</t>
+          <t>1,13; 2,09</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,18; 3,23</t>
+          <t>1,04; 1,91</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,63; 2,1</t>
+          <t>0,86; 1,67</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,7; 2,26</t>
+          <t>0,73; 1,59</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>1,88%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>2,01%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>1,61%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>1,23%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>0,91%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>0,29%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>0,55%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>1,03%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>1,57%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>1,43%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>1,23%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>1,16%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>1,3; 2,59</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>1,5; 2,77</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>1,12; 2,24</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>0,82; 1,82</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>0,41; 1,81</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>0,1; 0,78</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>0,19; 1,09</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>0,48; 2,22</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>1,13; 2,09</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>1,04; 1,91</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>0,86; 1,67</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>0,8; 1,65</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P32C-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P32C-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,22 +725,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,69</t>
+          <t>0,2; 1,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,56; 2,64</t>
+          <t>0,67; 2,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,79; 3,91</t>
+          <t>0,76; 3,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,73</t>
+          <t>0,17; 1,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +750,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,23</t>
+          <t>0,0; 2,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,27 +760,27 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,93</t>
+          <t>0,0; 3,12</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,34</t>
+          <t>0,15; 1,22</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,54; 2,2</t>
+          <t>0,54; 2,24</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,52; 2,78</t>
+          <t>0,51; 2,61</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,29; 1,63</t>
+          <t>0,29; 1,57</t>
         </is>
       </c>
     </row>
@@ -864,22 +865,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,7; 3,15</t>
+          <t>0,68; 2,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,68; 2,7</t>
+          <t>0,68; 2,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,57; 2,79</t>
+          <t>0,74; 2,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,63; 2,69</t>
+          <t>0,71; 2,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -894,32 +895,32 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,42</t>
+          <t>0,0; 1,94</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,48; 4,63</t>
+          <t>0,49; 5,17</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,43; 2,04</t>
+          <t>0,43; 1,97</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,45; 1,81</t>
+          <t>0,46; 1,85</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,53; 1,95</t>
+          <t>0,53; 2,07</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,9; 2,79</t>
+          <t>0,81; 2,79</t>
         </is>
       </c>
     </row>
@@ -1004,22 +1005,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,82; 6,36</t>
+          <t>1,68; 5,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,11; 3,89</t>
+          <t>1,11; 3,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,91; 3,82</t>
+          <t>0,89; 3,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,36</t>
+          <t>0,0; 2,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,27 +1040,27 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,8</t>
+          <t>0,0; 3,74</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,25; 4,2</t>
+          <t>1,27; 4,41</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,8; 2,87</t>
+          <t>0,76; 2,82</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,6; 2,32</t>
+          <t>0,61; 2,53</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,03</t>
+          <t>0,12; 2,14</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,3; 4,04</t>
+          <t>1,29; 4,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,75; 4,7</t>
+          <t>1,66; 4,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,53; 2,49</t>
+          <t>0,52; 2,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,69; 2,87</t>
+          <t>0,73; 3,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,01; 5,49</t>
+          <t>1,29; 5,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,71</t>
+          <t>0,0; 1,66</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,49; 2,84</t>
+          <t>0,49; 2,58</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,23; 1,9</t>
+          <t>0,27; 1,88</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,54; 3,93</t>
+          <t>1,5; 3,68</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,18; 3,23</t>
+          <t>1,21; 3,24</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,63; 2,1</t>
+          <t>0,65; 2,21</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,69; 2,18</t>
+          <t>0,69; 2,12</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,3; 2,59</t>
+          <t>1,31; 2,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,5; 2,77</t>
+          <t>1,46; 2,8</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,12; 2,24</t>
+          <t>1,14; 2,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,79; 1,78</t>
+          <t>0,71; 1,74</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,41; 1,81</t>
+          <t>0,39; 1,83</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,1; 0,78</t>
+          <t>0,1; 0,88</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,09</t>
+          <t>0,26; 1,22</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,36; 1,96</t>
+          <t>0,35; 1,83</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,13; 2,09</t>
+          <t>1,13; 2,15</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,04; 1,91</t>
+          <t>1,03; 1,94</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,86; 1,67</t>
+          <t>0,89; 1,67</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,73; 1,59</t>
+          <t>0,74; 1,55</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha bebido alguna vez para calmar los nervios o para evitar la resaca</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>2769</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>5885</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>7957</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>2381</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>1012</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1307</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>2769</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>6897</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>7957</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>3688</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>898; 7271</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2849; 12198</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>3230; 15433</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>577; 5537</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1883</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5026</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1838</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4992</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>904; 7542</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>3215; 13369</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>3085; 15818</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>1441; 7727</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>8772</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>8221</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>8775</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>7288</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1104</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>3409</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>8772</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>8221</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>9879</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>10697</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>3943; 16747</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>4038; 16034</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>4180; 16617</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>3405; 14274</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2032</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2094</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6108</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>987; 10429</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>3686; 16929</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>4084; 16376</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>4629; 18239</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>5468; 18915</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>11168</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>10325</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>8283</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>2250</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>2228</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>11168</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>10325</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>8283</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>4477</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>5552; 18912</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5088; 17349</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3781; 15617</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 7923</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1838</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2172</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2022</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 14080</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>5814; 20247</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>5063; 18735</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>4013; 16553</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>845; 15036</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>12553</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>16489</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>6949</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>6898</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>8180</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>2026</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>5106</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>2309</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>20733</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>18515</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>12055</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>9206</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>6802; 21277</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>9246; 27258</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2939; 13739</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>3220; 13359</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>3947; 16409</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 6143</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1957; 10394</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>784; 5447</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>12504; 30704</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>11236; 30028</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>6317; 21399</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>5041; 15577</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>35262</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>40920</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>31963</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>18817</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>8180</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>3038</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>6210</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>9252</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>43443</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>43958</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>38173</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>28069</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>24534; 49733</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>29656; 56954</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>22488; 44608</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>11182; 27422</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>3529; 16377</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1001; 9173</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>2921; 13756</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>3608; 18783</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>31280; 59731</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>31615; 59712</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>27679; 52044</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>19245; 40527</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>